--- a/Resources/FeatureInput.xlsx
+++ b/Resources/FeatureInput.xlsx
@@ -1,22 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Yrs of exp</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Job Category</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Alert name</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>IT software all jobs</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>JobSearch</t>
+  </si>
+  <si>
+    <t>selenium, appium, manual testing</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>IT-Software / Software Services</t>
+  </si>
+  <si>
+    <t>B.Tech/ B.E.,M.Tech,Any Postgraduate</t>
+  </si>
+  <si>
+    <t>Job View</t>
+  </si>
+  <si>
+    <t>Desired Candidate</t>
+  </si>
+  <si>
+    <t>Job Applicant</t>
+  </si>
+  <si>
+    <t>15500+</t>
+  </si>
+  <si>
+    <t>6000+</t>
+  </si>
+  <si>
+    <t>Prefer B.Tech. candidates from premier institutes like IIT/BITs/NITs/REC with relevant work experience -
+- Strong fundamentals in Algorithms, OOPs and Data Structure
+- Ability to hustle
+- Analytical Thinking
+- Team Player
+- Motivated &amp; Career-Driven</t>
+  </si>
+  <si>
+    <t>Prefer B.Tech. candidates from premier institutes like IIT/BITs/NITs/REC with relevant work experience -
+- Strong fundamentals in Algorithms, OOPs and Data Structure
+- Ability to hustle
+- Analytical Thinking
+- Team Player
+- Motivated &amp; Career-Drivennull</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -26,15 +123,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +145,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -62,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -221,7 +342,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -230,13 +351,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -246,7 +367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -255,7 +376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -264,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -274,12 +395,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -310,7 +431,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -329,7 +450,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -342,13 +463,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.97265625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.0234375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="93.8984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -360,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -372,6 +590,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Resources/FeatureInput.xlsx
+++ b/Resources/FeatureInput.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Scenario</t>
   </si>
@@ -562,7 +562,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/FeatureInput.xlsx
+++ b/Resources/FeatureInput.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TEST" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="TEST" sheetId="1" r:id="rId1"/>
+    <sheet name="WRITE" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Scenario</t>
   </si>
@@ -100,21 +100,12 @@
 - Team Player
 - Motivated &amp; Career-Driven</t>
   </si>
-  <si>
-    <t>Prefer B.Tech. candidates from premier institutes like IIT/BITs/NITs/REC with relevant work experience -
-- Strong fundamentals in Algorithms, OOPs and Data Structure
-- Ability to hustle
-- Analytical Thinking
-- Team Player
-- Motivated &amp; Career-Drivennull</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,19 +153,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,10 +182,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -221,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,7 +343,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -351,13 +352,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -367,7 +368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -376,7 +377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -385,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -395,12 +396,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -431,7 +432,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -450,7 +451,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -462,26 +463,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.97265625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.0234375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="93.8984375" collapsed="true"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="93.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,7 +526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -566,30 +567,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>